--- a/- DOCS -/COMPONENTS LIST/bom.xlsx
+++ b/- DOCS -/COMPONENTS LIST/bom.xlsx
@@ -1,21 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MenMe\Рабочий стол\GitHub\RoboCop\- DOCS -\component_list\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Simak\OneDrive\Dokumenty\GitHub\RoboCop\- DOCS -\COMPONENTS LIST\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{226039B1-2973-4345-9E77-F3E057EA0697}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E012470-FC40-4BBD-9C31-2781BBBD6D61}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{49D7D74D-18AC-488B-A0DE-D6822821B03E}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{49D7D74D-18AC-488B-A0DE-D6822821B03E}"/>
   </bookViews>
   <sheets>
-    <sheet name="el. components" sheetId="1" r:id="rId1"/>
-    <sheet name="mechanics" sheetId="2" r:id="rId2"/>
-    <sheet name="tools" sheetId="3" r:id="rId3"/>
+    <sheet name="el. components - THD" sheetId="1" r:id="rId1"/>
+    <sheet name="el. components - SMD" sheetId="4" r:id="rId2"/>
+    <sheet name="el. components - other" sheetId="5" r:id="rId3"/>
+    <sheet name="mechanics" sheetId="2" r:id="rId4"/>
+    <sheet name="tools + other" sheetId="3" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -38,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="185" uniqueCount="119">
   <si>
     <t>NAME</t>
   </si>
@@ -73,12 +75,6 @@
     <t>SUPPLIER</t>
   </si>
   <si>
-    <t>ESP-32</t>
-  </si>
-  <si>
-    <t>circuit board 3.0</t>
-  </si>
-  <si>
     <t>QTY reserve</t>
   </si>
   <si>
@@ -109,12 +105,6 @@
     <t>jet switch</t>
   </si>
   <si>
-    <t>classic switch</t>
-  </si>
-  <si>
-    <t>IR LED</t>
-  </si>
-  <si>
     <t>laser sensor</t>
   </si>
   <si>
@@ -211,20 +201,281 @@
     <t>qre tht</t>
   </si>
   <si>
-    <t>qre smd</t>
-  </si>
-  <si>
     <t>8,4v 450mAh</t>
   </si>
   <si>
-    <t>cr2025 bat</t>
+    <t>esp32 s3 vrum1</t>
+  </si>
+  <si>
+    <t>esp32-s3-devkitC-1</t>
+  </si>
+  <si>
+    <t>circuit board mk2</t>
+  </si>
+  <si>
+    <t>esp32-vrum32-devkit-1</t>
+  </si>
+  <si>
+    <t>multi color</t>
+  </si>
+  <si>
+    <t>switch</t>
+  </si>
+  <si>
+    <t>switch screwable</t>
+  </si>
+  <si>
+    <t>2A</t>
+  </si>
+  <si>
+    <t>tsop382</t>
+  </si>
+  <si>
+    <t>cr2025 batt</t>
+  </si>
+  <si>
+    <t>brush motor driver</t>
+  </si>
+  <si>
+    <t>TB6612FNG</t>
+  </si>
+  <si>
+    <t>regulátor nap.</t>
+  </si>
+  <si>
+    <t>AZ1084CD-5.0TRG1</t>
+  </si>
+  <si>
+    <t>mouser</t>
+  </si>
+  <si>
+    <t>25V 106 20%</t>
+  </si>
+  <si>
+    <t>TCJA106M025R0150E</t>
+  </si>
+  <si>
+    <t>tantalový kondenzátor</t>
+  </si>
+  <si>
+    <t>16V 226 20%</t>
+  </si>
+  <si>
+    <t>TCJA226M016R0300E</t>
+  </si>
+  <si>
+    <t>3.3V 3A pos.</t>
+  </si>
+  <si>
+    <t>LD1085D2M33R</t>
+  </si>
+  <si>
+    <t>elektrostatická ochrana</t>
+  </si>
+  <si>
+    <t>USBLC6-2SC6</t>
+  </si>
+  <si>
+    <t>5V 3A pos.</t>
+  </si>
+  <si>
+    <t>ld1085V50</t>
+  </si>
+  <si>
+    <t>ir recever</t>
+  </si>
+  <si>
+    <t>2,5-5,5V 38kH</t>
+  </si>
+  <si>
+    <t>TSOP31138</t>
+  </si>
+  <si>
+    <t>keramický kondenzátor</t>
+  </si>
+  <si>
+    <r>
+      <t>16v 10</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+      </rPr>
+      <t>µF</t>
+    </r>
+  </si>
+  <si>
+    <t>KAF31GR71C106KU</t>
+  </si>
+  <si>
+    <t>laserowy czujnik</t>
+  </si>
+  <si>
+    <t>TF-LC02</t>
+  </si>
+  <si>
+    <t>rezistor</t>
+  </si>
+  <si>
+    <r>
+      <t>100</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+      </rPr>
+      <t>Ω 0,25W .1%</t>
+    </r>
+  </si>
+  <si>
+    <t>RT1206BRD07100RL</t>
+  </si>
+  <si>
+    <t>čudlíci NO</t>
+  </si>
+  <si>
+    <r>
+      <t>16V 1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+      </rPr>
+      <t>µF</t>
+    </r>
+  </si>
+  <si>
+    <t>T491A105K016AT</t>
+  </si>
+  <si>
+    <r>
+      <t>JST  SH 1mm 6-pin konektor 90</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+      </rPr>
+      <t>°</t>
+    </r>
+  </si>
+  <si>
+    <t>JST  SH 1mm 6-pin konektor rovný</t>
+  </si>
+  <si>
+    <t xml:space="preserve">shotkyho dioda </t>
+  </si>
+  <si>
+    <t>CD1206-B260</t>
+  </si>
+  <si>
+    <t>arduino NANO</t>
+  </si>
+  <si>
+    <r>
+      <t>0</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+      </rPr>
+      <t>Ω</t>
+    </r>
+  </si>
+  <si>
+    <t>CRCW12060000ZSTC</t>
+  </si>
+  <si>
+    <t>15Ω</t>
+  </si>
+  <si>
+    <t>AC1206JR-0715RL</t>
+  </si>
+  <si>
+    <r>
+      <t>25V 100n</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+      </rPr>
+      <t>F</t>
+    </r>
+  </si>
+  <si>
+    <t>12063C104JAT2A</t>
+  </si>
+  <si>
+    <t>10kΩ</t>
+  </si>
+  <si>
+    <t>ERA-8BRB1002V</t>
+  </si>
+  <si>
+    <t>usb-c 4-pin</t>
+  </si>
+  <si>
+    <t>qre</t>
+  </si>
+  <si>
+    <t>všesměrová koule</t>
+  </si>
+  <si>
+    <t>USB-A na USB-B kabel</t>
+  </si>
+  <si>
+    <t>arduino UNO</t>
+  </si>
+  <si>
+    <t>posuvné měřítko</t>
+  </si>
+  <si>
+    <t>li-pol guard</t>
+  </si>
+  <si>
+    <t>thermal compound</t>
+  </si>
+  <si>
+    <t>t10 klíč</t>
+  </si>
+  <si>
+    <t>TF-Luna</t>
+  </si>
+  <si>
+    <t>5V</t>
+  </si>
+  <si>
+    <t>USB-C - F</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -240,6 +491,13 @@
       <family val="2"/>
       <charset val="238"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="238"/>
     </font>
   </fonts>
   <fills count="10">
@@ -298,7 +556,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="10">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -431,11 +689,37 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thick">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="thick">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -481,6 +765,12 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -801,23 +1091,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{42515726-14DD-4B98-B910-D2A515B29172}">
-  <dimension ref="A1:G37"/>
+  <dimension ref="A1:G24"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="B37" sqref="B37"/>
+    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="28.453125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="28.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="14.90625" style="2" customWidth="1"/>
-    <col min="2" max="2" width="14.90625" style="10" customWidth="1"/>
-    <col min="3" max="4" width="28.453125" style="3"/>
-    <col min="5" max="6" width="18.1796875" style="3" customWidth="1"/>
-    <col min="7" max="7" width="18.1796875" style="4" customWidth="1"/>
-    <col min="8" max="16384" width="28.453125" style="1"/>
+    <col min="1" max="1" width="14.88671875" style="2" customWidth="1"/>
+    <col min="2" max="2" width="14.88671875" style="10" customWidth="1"/>
+    <col min="3" max="4" width="28.44140625" style="3"/>
+    <col min="5" max="6" width="18.21875" style="3" customWidth="1"/>
+    <col min="7" max="7" width="18.21875" style="4" customWidth="1"/>
+    <col min="8" max="16384" width="28.44140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="25.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:7" ht="25.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="14" t="s">
         <v>4</v>
       </c>
@@ -828,12 +1118,12 @@
       <c r="F1" s="14"/>
       <c r="G1" s="15"/>
     </row>
-    <row r="2" spans="1:7" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A2" s="13" t="s">
-        <v>14</v>
+    <row r="2" spans="1:7" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="16" t="s">
+        <v>12</v>
       </c>
       <c r="B2" s="11" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C2" s="5" t="s">
         <v>0</v>
@@ -851,426 +1141,307 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="15" thickTop="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="12">
-        <v>0</v>
+    <row r="3" spans="1:7" ht="15" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="2">
+        <v>2</v>
       </c>
       <c r="B3" s="10">
         <v>4</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
+        <v>13</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" s="2">
         <v>1</v>
       </c>
       <c r="B4" s="10">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C4" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A5" s="2">
+        <v>0</v>
+      </c>
+      <c r="B5" s="10">
+        <v>4</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A6" s="2">
+        <v>0</v>
+      </c>
+      <c r="B6" s="10">
+        <v>3</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B7" s="10">
+        <v>23</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B8" s="10">
+        <v>16</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D8" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="C9" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D9" s="3">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="C10" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D10" s="3">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B11" s="10">
+        <v>10</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B12" s="10">
+        <v>13</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B13" s="10">
         <v>11</v>
       </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A5" s="2">
-        <v>3</v>
-      </c>
-      <c r="B5" s="10">
-        <v>2</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A6" s="2">
-        <v>3</v>
-      </c>
-      <c r="B6" s="10">
-        <v>0</v>
-      </c>
-      <c r="C6" s="3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A7" s="2">
-        <v>4</v>
-      </c>
-      <c r="B7" s="10">
-        <v>1</v>
-      </c>
-      <c r="C7" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A8" s="2">
-        <v>2</v>
-      </c>
-      <c r="B8" s="10">
-        <v>4</v>
-      </c>
-      <c r="C8" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="D8" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="E8" s="3" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A9" s="2">
-        <v>1</v>
-      </c>
-      <c r="B9" s="10">
-        <v>1</v>
-      </c>
-      <c r="C9" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="D9" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="E9" s="3" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A10" s="2">
-        <v>0</v>
-      </c>
-      <c r="B10" s="10">
-        <v>4</v>
-      </c>
-      <c r="C10" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="D10" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="E10" s="3" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A11" s="2">
-        <v>0</v>
-      </c>
-      <c r="B11" s="10">
-        <v>3</v>
-      </c>
-      <c r="C11" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="D11" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="E11" s="3" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="B12" s="10">
-        <v>23</v>
-      </c>
-      <c r="C12" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="D12" s="3" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="B13" s="10">
-        <v>16</v>
-      </c>
       <c r="C13" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="D13" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.35">
+        <v>5</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B14" s="10">
+        <v>5</v>
+      </c>
       <c r="C14" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="D14" s="3">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="D14" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B15" s="10">
+        <v>5</v>
+      </c>
       <c r="C15" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="D15" s="3">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="D15" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B16" s="10">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C16" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A17" s="2">
+        <v>6</v>
+      </c>
+      <c r="B17" s="10">
+        <v>4</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A18" s="2">
+        <v>0</v>
+      </c>
+      <c r="B18" s="10">
         <v>5</v>
       </c>
-      <c r="D16" s="3" t="s">
+      <c r="C18" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="E18" s="3" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A19" s="2">
+        <v>6</v>
+      </c>
+      <c r="B19" s="10">
+        <v>2</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A20" s="2">
+        <v>5</v>
+      </c>
+      <c r="B20" s="10">
+        <v>19</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B21" s="10">
+        <v>6</v>
+      </c>
+      <c r="C21" s="3" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="B17" s="10">
-        <v>15</v>
-      </c>
-      <c r="C17" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="D17" s="3" t="s">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B22" s="10">
+        <v>6</v>
+      </c>
+      <c r="C22" s="3" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="B18" s="10">
-        <v>12</v>
-      </c>
-      <c r="C18" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="D18" s="3" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="B19" s="10">
-        <v>5</v>
-      </c>
-      <c r="C19" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="D19" s="3" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="B20" s="10">
-        <v>5</v>
-      </c>
-      <c r="C20" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="D20" s="3" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="B21" s="10">
-        <v>12</v>
-      </c>
-      <c r="C21" s="3" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A22" s="2">
-        <v>0</v>
-      </c>
-      <c r="B22" s="10">
-        <v>1</v>
-      </c>
-      <c r="C22" s="3" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A23" s="2">
         <v>0</v>
       </c>
       <c r="B23" s="10">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.35">
+        <v>80</v>
+      </c>
+      <c r="D23" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="E23" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="F23" s="3"/>
+      <c r="G23" s="4" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A24" s="2">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="B24" s="10">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A25" s="2">
-        <v>3</v>
-      </c>
-      <c r="B25" s="10">
-        <v>2</v>
-      </c>
-      <c r="C25" s="3" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A26" s="2">
-        <v>0</v>
-      </c>
-      <c r="B26" s="10">
-        <v>5</v>
-      </c>
-      <c r="C26" s="3" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A27" s="2">
-        <v>6</v>
-      </c>
-      <c r="B27" s="10">
-        <v>2</v>
-      </c>
-      <c r="C27" s="3" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A28" s="2">
-        <v>5</v>
-      </c>
-      <c r="B28" s="10">
-        <v>4</v>
-      </c>
-      <c r="C28" s="3" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A29" s="2">
-        <v>0</v>
-      </c>
-      <c r="B29" s="10">
-        <v>10</v>
-      </c>
-      <c r="C29" s="3" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="B30" s="10">
-        <v>4</v>
-      </c>
-      <c r="C30" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="D30" s="3" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="B31" s="10">
-        <v>4</v>
-      </c>
-      <c r="C31" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="D31" s="3" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="B32" s="10">
-        <v>1</v>
-      </c>
-      <c r="C32" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="D32" s="3" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="33" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B33" s="10">
-        <v>1</v>
-      </c>
-      <c r="C33" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="D33" s="3" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="34" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B34" s="10">
-        <v>1</v>
-      </c>
-      <c r="C34" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="D34" s="3" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="35" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B35" s="10">
-        <v>6</v>
-      </c>
-      <c r="C35" s="3" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="36" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B36" s="10">
-        <v>6</v>
-      </c>
-      <c r="C36" s="3" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="37" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B37" s="10">
-        <v>3</v>
-      </c>
-      <c r="C37" s="3" t="s">
-        <v>59</v>
-      </c>
+        <v>107</v>
+      </c>
+      <c r="D24" s="3"/>
+      <c r="E24" s="3"/>
+      <c r="F24" s="3"/>
+      <c r="G24" s="4"/>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:G1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="360" verticalDpi="360" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{860B9AA3-CDFC-49E7-9F7D-763BB2D92E88}">
-  <dimension ref="A1:G6"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9F930C73-0F49-4C5B-BB1A-1B51D92EBAE9}">
+  <dimension ref="A1:G37"/>
   <sheetViews>
-    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A24" sqref="A24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="28.453125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="14.90625" style="2" customWidth="1"/>
-    <col min="2" max="2" width="14.90625" style="10" customWidth="1"/>
-    <col min="3" max="4" width="28.453125" style="3"/>
-    <col min="5" max="6" width="18.1796875" style="3" customWidth="1"/>
-    <col min="7" max="7" width="18.1796875" style="4" customWidth="1"/>
-    <col min="8" max="16384" width="28.453125" style="1"/>
+    <col min="1" max="2" width="11.21875" customWidth="1"/>
+    <col min="3" max="3" width="33.5546875" customWidth="1"/>
+    <col min="4" max="4" width="15.44140625" customWidth="1"/>
+    <col min="5" max="5" width="32.88671875" customWidth="1"/>
+    <col min="6" max="6" width="12.21875" customWidth="1"/>
+    <col min="7" max="7" width="18.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="25.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:7" ht="21.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="14" t="s">
-        <v>34</v>
+        <v>4</v>
       </c>
       <c r="B1" s="14"/>
       <c r="C1" s="14"/>
@@ -1279,12 +1450,12 @@
       <c r="F1" s="14"/>
       <c r="G1" s="15"/>
     </row>
-    <row r="2" spans="1:7" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:7" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="13" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B2" s="11" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C2" s="5" t="s">
         <v>0</v>
@@ -1302,40 +1473,534 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="15" thickTop="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:7" ht="15" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A3" s="12">
         <v>2</v>
       </c>
+      <c r="B3" s="10">
+        <v>3</v>
+      </c>
       <c r="C3" s="3" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
+        <v>54</v>
+      </c>
+      <c r="D3" s="3"/>
+      <c r="E3" s="3"/>
+      <c r="F3" s="3"/>
+      <c r="G3" s="4"/>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" s="2">
         <v>2</v>
       </c>
+      <c r="B4" s="10">
+        <v>8</v>
+      </c>
       <c r="C4" s="3" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
+        <v>64</v>
+      </c>
+      <c r="D4" s="3"/>
+      <c r="E4" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="F4" s="3"/>
+      <c r="G4" s="4" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" s="2">
         <v>2</v>
       </c>
+      <c r="B5" s="10">
+        <v>2</v>
+      </c>
       <c r="C5" s="3" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
+        <v>66</v>
+      </c>
+      <c r="D5" s="3"/>
+      <c r="E5" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="F5" s="3"/>
+      <c r="G5" s="4" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A6" s="2">
+        <v>0</v>
+      </c>
       <c r="B6" s="10">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>38</v>
+        <v>71</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>39</v>
-      </c>
+        <v>69</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="F6" s="3"/>
+      <c r="G6" s="4" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A7" s="2">
+        <v>0</v>
+      </c>
+      <c r="B7" s="10">
+        <v>5</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="F7" s="3"/>
+      <c r="G7" s="4" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A8" s="2">
+        <v>0</v>
+      </c>
+      <c r="B8" s="10">
+        <v>2</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="F8" s="3"/>
+      <c r="G8" s="4" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A9" s="2">
+        <v>2</v>
+      </c>
+      <c r="B9" s="10">
+        <v>8</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="D9" s="3"/>
+      <c r="E9" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="F9" s="3"/>
+      <c r="G9" s="4" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A10" s="2">
+        <v>0</v>
+      </c>
+      <c r="B10" s="10">
+        <v>2</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="F10" s="3"/>
+      <c r="G10" s="4" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A11" s="2">
+        <v>14</v>
+      </c>
+      <c r="B11" s="10">
+        <v>6</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="F11" s="3"/>
+      <c r="G11" s="4" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A12" s="2">
+        <v>0</v>
+      </c>
+      <c r="B12" s="10">
+        <v>1</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="D12" s="3"/>
+      <c r="E12" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="F12" s="3"/>
+      <c r="G12" s="4"/>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A13" s="2">
+        <v>7</v>
+      </c>
+      <c r="B13" s="10">
+        <v>3</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="E13" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="F13" s="3"/>
+      <c r="G13" s="4" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A14" s="2">
+        <v>7</v>
+      </c>
+      <c r="B14" s="10">
+        <v>3</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="D14" s="3"/>
+      <c r="E14" s="3"/>
+      <c r="F14" s="3"/>
+      <c r="G14" s="4" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A15" s="2">
+        <v>2</v>
+      </c>
+      <c r="B15" s="10">
+        <v>8</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="E15" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="F15" s="3"/>
+      <c r="G15" s="4" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A16" s="2"/>
+      <c r="B16" s="10">
+        <v>4</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="D16" s="3"/>
+      <c r="E16" s="3"/>
+      <c r="F16" s="3"/>
+      <c r="G16" s="4"/>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A17" s="2"/>
+      <c r="B17" s="10">
+        <v>10</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="D17" s="3"/>
+      <c r="E17" s="3"/>
+      <c r="F17" s="3"/>
+      <c r="G17" s="4"/>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A18" s="2">
+        <v>4</v>
+      </c>
+      <c r="B18" s="10">
+        <v>6</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="D18" s="3"/>
+      <c r="E18" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="F18" s="3"/>
+      <c r="G18" s="4" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A19" s="2">
+        <v>6</v>
+      </c>
+      <c r="B19" s="10">
+        <v>14</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="D19" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="E19" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="F19" s="3"/>
+      <c r="G19" s="4" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A20" s="2">
+        <v>8</v>
+      </c>
+      <c r="B20" s="10">
+        <v>2</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="D20" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="E20" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="F20" s="3"/>
+      <c r="G20" s="4" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A21" s="2">
+        <v>4</v>
+      </c>
+      <c r="B21" s="10">
+        <v>6</v>
+      </c>
+      <c r="C21" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="D21" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="E21" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="F21" s="3"/>
+      <c r="G21" s="4" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A22" s="2">
+        <v>11</v>
+      </c>
+      <c r="B22" s="10">
+        <v>9</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="D22" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="E22" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="F22" s="3"/>
+      <c r="G22" s="4" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A23" s="2">
+        <v>0</v>
+      </c>
+      <c r="B23" s="10">
+        <v>10</v>
+      </c>
+      <c r="C23" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="D23" s="3"/>
+      <c r="E23" s="3"/>
+      <c r="F23" s="3"/>
+      <c r="G23" s="4"/>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A24" s="2">
+        <v>2</v>
+      </c>
+      <c r="B24" s="10">
+        <v>3</v>
+      </c>
+      <c r="C24" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="D24" s="3"/>
+      <c r="E24" s="3"/>
+      <c r="F24" s="3"/>
+      <c r="G24" s="4"/>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A25" s="2"/>
+      <c r="B25" s="10"/>
+      <c r="C25" s="3"/>
+      <c r="D25" s="3"/>
+      <c r="E25" s="3"/>
+      <c r="F25" s="3"/>
+      <c r="G25" s="4"/>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A26" s="2"/>
+      <c r="B26" s="10"/>
+      <c r="C26" s="3"/>
+      <c r="D26" s="3"/>
+      <c r="E26" s="3"/>
+      <c r="F26" s="3"/>
+      <c r="G26" s="4"/>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A27" s="2"/>
+      <c r="B27" s="10"/>
+      <c r="C27" s="3"/>
+      <c r="D27" s="3"/>
+      <c r="E27" s="3"/>
+      <c r="F27" s="3"/>
+      <c r="G27" s="4"/>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A28" s="2"/>
+      <c r="B28" s="10"/>
+      <c r="C28" s="3"/>
+      <c r="D28" s="3"/>
+      <c r="E28" s="3"/>
+      <c r="F28" s="3"/>
+      <c r="G28" s="4"/>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A29" s="2"/>
+      <c r="B29" s="10"/>
+      <c r="C29" s="3"/>
+      <c r="D29" s="3"/>
+      <c r="E29" s="3"/>
+      <c r="F29" s="3"/>
+      <c r="G29" s="4"/>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A30" s="2"/>
+      <c r="B30" s="10"/>
+      <c r="C30" s="3"/>
+      <c r="D30" s="3"/>
+      <c r="E30" s="3"/>
+      <c r="F30" s="3"/>
+      <c r="G30" s="4"/>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A31" s="2"/>
+      <c r="B31" s="10"/>
+      <c r="C31" s="3"/>
+      <c r="D31" s="3"/>
+      <c r="E31" s="3"/>
+      <c r="F31" s="3"/>
+      <c r="G31" s="4"/>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A32" s="2"/>
+      <c r="B32" s="10"/>
+      <c r="C32" s="3"/>
+      <c r="D32" s="3"/>
+      <c r="E32" s="3"/>
+      <c r="F32" s="3"/>
+      <c r="G32" s="4"/>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A33" s="2"/>
+      <c r="B33" s="10"/>
+      <c r="C33" s="3"/>
+      <c r="D33" s="3"/>
+      <c r="E33" s="3"/>
+      <c r="F33" s="3"/>
+      <c r="G33" s="4"/>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A34" s="2"/>
+      <c r="B34" s="10"/>
+      <c r="C34" s="3"/>
+      <c r="D34" s="3"/>
+      <c r="E34" s="3"/>
+      <c r="F34" s="3"/>
+      <c r="G34" s="4"/>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A35" s="2"/>
+      <c r="B35" s="10"/>
+      <c r="C35" s="3"/>
+      <c r="D35" s="3"/>
+      <c r="E35" s="3"/>
+      <c r="F35" s="3"/>
+      <c r="G35" s="4"/>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A36" s="2"/>
+      <c r="B36" s="10"/>
+      <c r="C36" s="3"/>
+      <c r="D36" s="3"/>
+      <c r="E36" s="3"/>
+      <c r="F36" s="3"/>
+      <c r="G36" s="4"/>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A37" s="2"/>
+      <c r="B37" s="10"/>
+      <c r="C37" s="3"/>
+      <c r="D37" s="3"/>
+      <c r="E37" s="3"/>
+      <c r="F37" s="3"/>
+      <c r="G37" s="4"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -1346,26 +2011,26 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3DA3E15C-65BC-4D42-925F-A13A859A585F}">
-  <dimension ref="A1:G4"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C3644371-F4B4-47C9-A2E0-05B12AC541FA}">
+  <dimension ref="A1:G20"/>
   <sheetViews>
-    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="28.453125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="28.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="14.90625" style="2" customWidth="1"/>
-    <col min="2" max="2" width="14.90625" style="10" customWidth="1"/>
-    <col min="3" max="4" width="28.453125" style="3"/>
-    <col min="5" max="6" width="18.1796875" style="3" customWidth="1"/>
-    <col min="7" max="7" width="18.1796875" style="4" customWidth="1"/>
-    <col min="8" max="16384" width="28.453125" style="1"/>
+    <col min="1" max="1" width="14.88671875" style="2" customWidth="1"/>
+    <col min="2" max="2" width="14.88671875" style="10" customWidth="1"/>
+    <col min="3" max="4" width="28.44140625" style="3"/>
+    <col min="5" max="6" width="18.21875" style="3" customWidth="1"/>
+    <col min="7" max="7" width="18.21875" style="4" customWidth="1"/>
+    <col min="8" max="16384" width="28.44140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="25.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:7" ht="25.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="14" t="s">
-        <v>33</v>
+        <v>4</v>
       </c>
       <c r="B1" s="14"/>
       <c r="C1" s="14"/>
@@ -1374,12 +2039,12 @@
       <c r="F1" s="14"/>
       <c r="G1" s="15"/>
     </row>
-    <row r="2" spans="1:7" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A2" s="13" t="s">
-        <v>14</v>
+    <row r="2" spans="1:7" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="16" t="s">
+        <v>12</v>
       </c>
       <c r="B2" s="11" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C2" s="5" t="s">
         <v>0</v>
@@ -1397,20 +2062,421 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="15" thickTop="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:7" ht="15" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="12">
+        <v>0</v>
+      </c>
+      <c r="B3" s="10">
+        <v>1</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A4" s="17">
+        <v>0</v>
+      </c>
+      <c r="B4" s="10">
+        <v>4</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A5" s="2">
+        <v>1</v>
+      </c>
+      <c r="B5" s="10">
+        <v>1</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A6" s="2">
+        <v>0</v>
+      </c>
+      <c r="B6" s="10">
+        <v>1</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A7" s="2">
+        <v>0</v>
+      </c>
+      <c r="B7" s="10">
+        <v>1</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A8" s="2">
+        <v>2</v>
+      </c>
+      <c r="B8" s="10">
+        <v>3</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B9" s="10">
+        <v>2</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B10" s="10">
+        <v>6</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A11" s="2">
+        <v>0</v>
+      </c>
+      <c r="B11" s="10">
+        <v>1</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A12" s="2">
+        <v>0</v>
+      </c>
+      <c r="B12" s="10">
+        <v>2</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A13" s="2">
+        <v>2</v>
+      </c>
+      <c r="B13" s="10">
+        <v>1</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A14" s="2">
+        <v>3</v>
+      </c>
+      <c r="B14" s="10">
+        <v>2</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="D14" s="1"/>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B15" s="10">
+        <v>4</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B16" s="10">
+        <v>4</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="17" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B17" s="10">
+        <v>0</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="D17" s="3" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="18" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B18" s="10">
+        <v>1</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="D18" s="3" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="19" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B19" s="10">
+        <v>1</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="D19" s="3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="20" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B20" s="10">
+        <v>3</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="D20" s="3" t="s">
+        <v>117</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:G1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{860B9AA3-CDFC-49E7-9F7D-763BB2D92E88}">
+  <dimension ref="A1:G7"/>
+  <sheetViews>
+    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="28.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="14.88671875" style="2" customWidth="1"/>
+    <col min="2" max="2" width="14.88671875" style="10" customWidth="1"/>
+    <col min="3" max="4" width="28.44140625" style="3"/>
+    <col min="5" max="6" width="18.21875" style="3" customWidth="1"/>
+    <col min="7" max="7" width="18.21875" style="4" customWidth="1"/>
+    <col min="8" max="16384" width="28.44140625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" ht="25.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="B1" s="14"/>
+      <c r="C1" s="14"/>
+      <c r="D1" s="14"/>
+      <c r="E1" s="14"/>
+      <c r="F1" s="14"/>
+      <c r="G1" s="15"/>
+    </row>
+    <row r="2" spans="1:7" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="B2" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="E2" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="F2" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="G2" s="9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="15" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="12">
+        <v>2</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A4" s="2">
+        <v>2</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A5" s="2">
+        <v>2</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B6" s="10">
+        <v>30</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B7" s="10">
+        <v>2</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>109</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:G1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3DA3E15C-65BC-4D42-925F-A13A859A585F}">
+  <dimension ref="A1:G10"/>
+  <sheetViews>
+    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="A10" sqref="A10:XFD10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="28.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="14.88671875" style="2" customWidth="1"/>
+    <col min="2" max="2" width="14.88671875" style="10" customWidth="1"/>
+    <col min="3" max="4" width="28.44140625" style="3"/>
+    <col min="5" max="6" width="18.21875" style="3" customWidth="1"/>
+    <col min="7" max="7" width="18.21875" style="4" customWidth="1"/>
+    <col min="8" max="16384" width="28.44140625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" ht="25.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="B1" s="14"/>
+      <c r="C1" s="14"/>
+      <c r="D1" s="14"/>
+      <c r="E1" s="14"/>
+      <c r="F1" s="14"/>
+      <c r="G1" s="15"/>
+    </row>
+    <row r="2" spans="1:7" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="B2" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="E2" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="F2" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="G2" s="9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="15" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A3" s="12">
         <v>1</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" s="2">
         <v>1</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>44</v>
+        <v>40</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B5" s="10">
+        <v>1</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B6" s="10">
+        <v>1</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="C7" s="3" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="C8" s="3" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B9" s="10">
+        <v>1</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B10" s="10">
+        <v>3</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>63</v>
       </c>
     </row>
   </sheetData>

--- a/- DOCS -/COMPONENTS LIST/bom.xlsx
+++ b/- DOCS -/COMPONENTS LIST/bom.xlsx
@@ -1,21 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MenMe\Рабочий стол\GitHub\RoboCop\- DOCS -\component_list\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Simak\OneDrive\Dokumenty\GitHub\RoboCop\- DOCS -\COMPONENTS LIST\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{226039B1-2973-4345-9E77-F3E057EA0697}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{596094D9-4EE0-4C3F-B43F-63B44954B4C8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{49D7D74D-18AC-488B-A0DE-D6822821B03E}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{49D7D74D-18AC-488B-A0DE-D6822821B03E}"/>
   </bookViews>
   <sheets>
-    <sheet name="el. components" sheetId="1" r:id="rId1"/>
-    <sheet name="mechanics" sheetId="2" r:id="rId2"/>
-    <sheet name="tools" sheetId="3" r:id="rId3"/>
+    <sheet name="el. components - THD" sheetId="1" r:id="rId1"/>
+    <sheet name="el. components - SMD" sheetId="4" r:id="rId2"/>
+    <sheet name="el. components - other" sheetId="5" r:id="rId3"/>
+    <sheet name="mechanics" sheetId="2" r:id="rId4"/>
+    <sheet name="tools + other" sheetId="3" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -38,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="196" uniqueCount="125">
   <si>
     <t>NAME</t>
   </si>
@@ -73,12 +75,6 @@
     <t>SUPPLIER</t>
   </si>
   <si>
-    <t>ESP-32</t>
-  </si>
-  <si>
-    <t>circuit board 3.0</t>
-  </si>
-  <si>
     <t>QTY reserve</t>
   </si>
   <si>
@@ -109,12 +105,6 @@
     <t>jet switch</t>
   </si>
   <si>
-    <t>classic switch</t>
-  </si>
-  <si>
-    <t>IR LED</t>
-  </si>
-  <si>
     <t>laser sensor</t>
   </si>
   <si>
@@ -133,9 +123,6 @@
     <t>12,6V 450mAh</t>
   </si>
   <si>
-    <t>terrorist battery</t>
-  </si>
-  <si>
     <t>???</t>
   </si>
   <si>
@@ -211,20 +198,302 @@
     <t>qre tht</t>
   </si>
   <si>
-    <t>qre smd</t>
-  </si>
-  <si>
     <t>8,4v 450mAh</t>
   </si>
   <si>
-    <t>cr2025 bat</t>
+    <t>esp32 s3 vrum1</t>
+  </si>
+  <si>
+    <t>esp32-s3-devkitC-1</t>
+  </si>
+  <si>
+    <t>circuit board mk2</t>
+  </si>
+  <si>
+    <t>esp32-vrum32-devkit-1</t>
+  </si>
+  <si>
+    <t>multi color</t>
+  </si>
+  <si>
+    <t>switch</t>
+  </si>
+  <si>
+    <t>switch screwable</t>
+  </si>
+  <si>
+    <t>2A</t>
+  </si>
+  <si>
+    <t>tsop382</t>
+  </si>
+  <si>
+    <t>cr2025 batt</t>
+  </si>
+  <si>
+    <t>brush motor driver</t>
+  </si>
+  <si>
+    <t>TB6612FNG</t>
+  </si>
+  <si>
+    <t>regulátor nap.</t>
+  </si>
+  <si>
+    <t>AZ1084CD-5.0TRG1</t>
+  </si>
+  <si>
+    <t>mouser</t>
+  </si>
+  <si>
+    <t>25V 106 20%</t>
+  </si>
+  <si>
+    <t>TCJA106M025R0150E</t>
+  </si>
+  <si>
+    <t>tantalový kondenzátor</t>
+  </si>
+  <si>
+    <t>16V 226 20%</t>
+  </si>
+  <si>
+    <t>TCJA226M016R0300E</t>
+  </si>
+  <si>
+    <t>3.3V 3A pos.</t>
+  </si>
+  <si>
+    <t>LD1085D2M33R</t>
+  </si>
+  <si>
+    <t>elektrostatická ochrana</t>
+  </si>
+  <si>
+    <t>USBLC6-2SC6</t>
+  </si>
+  <si>
+    <t>5V 3A pos.</t>
+  </si>
+  <si>
+    <t>ld1085V50</t>
+  </si>
+  <si>
+    <t>ir recever</t>
+  </si>
+  <si>
+    <t>2,5-5,5V 38kH</t>
+  </si>
+  <si>
+    <t>TSOP31138</t>
+  </si>
+  <si>
+    <t>keramický kondenzátor</t>
+  </si>
+  <si>
+    <r>
+      <t>16v 10</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+      </rPr>
+      <t>µF</t>
+    </r>
+  </si>
+  <si>
+    <t>KAF31GR71C106KU</t>
+  </si>
+  <si>
+    <t>laserowy czujnik</t>
+  </si>
+  <si>
+    <t>TF-LC02</t>
+  </si>
+  <si>
+    <t>rezistor</t>
+  </si>
+  <si>
+    <r>
+      <t>100</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+      </rPr>
+      <t>Ω 0,25W .1%</t>
+    </r>
+  </si>
+  <si>
+    <t>RT1206BRD07100RL</t>
+  </si>
+  <si>
+    <t>čudlíci NO</t>
+  </si>
+  <si>
+    <r>
+      <t>16V 1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+      </rPr>
+      <t>µF</t>
+    </r>
+  </si>
+  <si>
+    <t>T491A105K016AT</t>
+  </si>
+  <si>
+    <r>
+      <t>JST  SH 1mm 6-pin konektor 90</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+      </rPr>
+      <t>°</t>
+    </r>
+  </si>
+  <si>
+    <t>JST  SH 1mm 6-pin konektor rovný</t>
+  </si>
+  <si>
+    <t xml:space="preserve">shotkyho dioda </t>
+  </si>
+  <si>
+    <t>CD1206-B260</t>
+  </si>
+  <si>
+    <t>arduino NANO</t>
+  </si>
+  <si>
+    <r>
+      <t>0</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+      </rPr>
+      <t>Ω</t>
+    </r>
+  </si>
+  <si>
+    <t>CRCW12060000ZSTC</t>
+  </si>
+  <si>
+    <t>15Ω</t>
+  </si>
+  <si>
+    <t>AC1206JR-0715RL</t>
+  </si>
+  <si>
+    <r>
+      <t>25V 100n</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+      </rPr>
+      <t>F</t>
+    </r>
+  </si>
+  <si>
+    <t>12063C104JAT2A</t>
+  </si>
+  <si>
+    <t>10kΩ</t>
+  </si>
+  <si>
+    <t>ERA-8BRB1002V</t>
+  </si>
+  <si>
+    <t>usb-c 4-pin</t>
+  </si>
+  <si>
+    <t>qre</t>
+  </si>
+  <si>
+    <t>všesměrová koule</t>
+  </si>
+  <si>
+    <t>USB-A na USB-B kabel</t>
+  </si>
+  <si>
+    <t>arduino UNO</t>
+  </si>
+  <si>
+    <t>posuvné měřítko</t>
+  </si>
+  <si>
+    <t>li-pol guard</t>
+  </si>
+  <si>
+    <t>thermal compound</t>
+  </si>
+  <si>
+    <t>t10 klíč</t>
+  </si>
+  <si>
+    <t>TF-Luna</t>
+  </si>
+  <si>
+    <t>5V</t>
+  </si>
+  <si>
+    <t>USB-C - F</t>
+  </si>
+  <si>
+    <t>lm1084</t>
+  </si>
+  <si>
+    <t>3v3 5a</t>
+  </si>
+  <si>
+    <t>lost</t>
+  </si>
+  <si>
+    <t>terrorist battery 2s</t>
+  </si>
+  <si>
+    <t>tranzistor</t>
+  </si>
+  <si>
+    <t>20v</t>
+  </si>
+  <si>
+    <t>TSM2302CX RF</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -241,8 +510,23 @@
       <charset val="238"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="238"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="238"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="10">
+  <fills count="11">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -297,8 +581,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="1" tint="4.9989318521683403E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="10">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -431,11 +721,37 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thick">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="thick">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -476,11 +792,20 @@
     <xf numFmtId="0" fontId="0" fillId="9" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -801,621 +1126,1505 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{42515726-14DD-4B98-B910-D2A515B29172}">
-  <dimension ref="A1:G37"/>
+  <dimension ref="A1:H26"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="B37" sqref="B37"/>
+    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="A26" sqref="A26:XFD26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="28.453125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="28.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="14.90625" style="2" customWidth="1"/>
-    <col min="2" max="2" width="14.90625" style="10" customWidth="1"/>
-    <col min="3" max="4" width="28.453125" style="3"/>
-    <col min="5" max="6" width="18.1796875" style="3" customWidth="1"/>
-    <col min="7" max="7" width="18.1796875" style="4" customWidth="1"/>
-    <col min="8" max="16384" width="28.453125" style="1"/>
+    <col min="1" max="1" width="14.88671875" style="2" customWidth="1"/>
+    <col min="2" max="3" width="14.88671875" style="10" customWidth="1"/>
+    <col min="4" max="5" width="28.44140625" style="3"/>
+    <col min="6" max="7" width="18.21875" style="3" customWidth="1"/>
+    <col min="8" max="8" width="18.21875" style="4" customWidth="1"/>
+    <col min="9" max="16384" width="28.44140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="25.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="14" t="s">
+    <row r="1" spans="1:8" ht="25.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="16" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="14"/>
-      <c r="C1" s="14"/>
-      <c r="D1" s="14"/>
-      <c r="E1" s="14"/>
-      <c r="F1" s="14"/>
-      <c r="G1" s="15"/>
-    </row>
-    <row r="2" spans="1:7" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A2" s="13" t="s">
+      <c r="B1" s="16"/>
+      <c r="C1" s="16"/>
+      <c r="D1" s="16"/>
+      <c r="E1" s="16"/>
+      <c r="F1" s="16"/>
+      <c r="G1" s="16"/>
+      <c r="H1" s="17"/>
+    </row>
+    <row r="2" spans="1:8" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="B2" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="C2" s="18" t="s">
+        <v>120</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="E2" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="F2" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="G2" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="H2" s="9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="15" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="2">
+        <v>2</v>
+      </c>
+      <c r="B3" s="10">
+        <v>1</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A4" s="2">
+        <v>0</v>
+      </c>
+      <c r="B4" s="10">
+        <v>3</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A5" s="2">
+        <v>1</v>
+      </c>
+      <c r="B5" s="10">
+        <v>1</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A6" s="2">
+        <v>0</v>
+      </c>
+      <c r="B6" s="10">
+        <v>4</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A7" s="2">
+        <v>0</v>
+      </c>
+      <c r="B7" s="10">
+        <v>3</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="F7" s="3" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B8" s="10">
+        <v>21</v>
+      </c>
+      <c r="D8" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="B2" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="C2" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="D2" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="E2" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="F2" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="G2" s="9" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" ht="15" thickTop="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="12">
-        <v>0</v>
-      </c>
-      <c r="B3" s="10">
-        <v>4</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A4" s="2">
-        <v>1</v>
-      </c>
-      <c r="B4" s="10">
-        <v>2</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A5" s="2">
-        <v>3</v>
-      </c>
-      <c r="B5" s="10">
-        <v>2</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A6" s="2">
-        <v>3</v>
-      </c>
-      <c r="B6" s="10">
-        <v>0</v>
-      </c>
-      <c r="C6" s="3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A7" s="2">
-        <v>4</v>
-      </c>
-      <c r="B7" s="10">
-        <v>1</v>
-      </c>
-      <c r="C7" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A8" s="2">
-        <v>2</v>
-      </c>
-      <c r="B8" s="10">
-        <v>4</v>
-      </c>
-      <c r="C8" s="3" t="s">
+      <c r="E8" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="D8" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="E8" s="3" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A9" s="2">
-        <v>1</v>
-      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B9" s="10">
-        <v>1</v>
-      </c>
-      <c r="C9" s="3" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="E9" s="3" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A10" s="2">
-        <v>0</v>
-      </c>
-      <c r="B10" s="10">
-        <v>4</v>
-      </c>
-      <c r="C10" s="3" t="s">
-        <v>15</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="E9" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="D10" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="E10" s="3" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A11" s="2">
-        <v>0</v>
-      </c>
-      <c r="B11" s="10">
-        <v>3</v>
-      </c>
-      <c r="C11" s="3" t="s">
-        <v>15</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="E10" s="3">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="D11" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="E11" s="3" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.35">
+        <v>14</v>
+      </c>
+      <c r="E11" s="3">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B12" s="10">
-        <v>23</v>
-      </c>
-      <c r="C12" s="3" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.35">
+        <v>5</v>
+      </c>
+      <c r="E12" s="3" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B13" s="10">
         <v>16</v>
       </c>
-      <c r="C13" s="3" t="s">
+      <c r="D13" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E13" s="3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B14" s="10">
+        <v>11</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B15" s="10">
+        <v>5</v>
+      </c>
+      <c r="D15" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="D13" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="C14" s="3" t="s">
+      <c r="E15" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B16" s="10">
+        <v>5</v>
+      </c>
+      <c r="D16" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="D14" s="3">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="C15" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="D15" s="3">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="B16" s="10">
-        <v>12</v>
-      </c>
-      <c r="C16" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="D16" s="3" t="s">
+      <c r="E16" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B17" s="10">
+        <v>13</v>
+      </c>
+      <c r="D17" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E17" s="3" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A18" s="2">
+        <v>6</v>
+      </c>
+      <c r="B18" s="10">
+        <v>4</v>
+      </c>
+      <c r="D18" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A19" s="2">
+        <v>1</v>
+      </c>
+      <c r="B19" s="10">
+        <v>2</v>
+      </c>
+      <c r="D19" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="F19" s="3" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A20" s="2">
+        <v>6</v>
+      </c>
+      <c r="B20" s="10">
+        <v>2</v>
+      </c>
+      <c r="D20" s="3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A21" s="2">
+        <v>8</v>
+      </c>
+      <c r="B21" s="10">
+        <v>19</v>
+      </c>
+      <c r="D21" s="3" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B22" s="10">
+        <v>6</v>
+      </c>
+      <c r="D22" s="3" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B23" s="10">
+        <v>6</v>
+      </c>
+      <c r="D23" s="3" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="B17" s="10">
-        <v>15</v>
-      </c>
-      <c r="C17" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="D17" s="3" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="B18" s="10">
-        <v>12</v>
-      </c>
-      <c r="C18" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="D18" s="3" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="B19" s="10">
-        <v>5</v>
-      </c>
-      <c r="C19" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="D19" s="3" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="B20" s="10">
-        <v>5</v>
-      </c>
-      <c r="C20" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="D20" s="3" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="B21" s="10">
-        <v>12</v>
-      </c>
-      <c r="C21" s="3" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A22" s="2">
+    <row r="24" spans="1:8" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="2">
         <v>0</v>
       </c>
-      <c r="B22" s="10">
-        <v>1</v>
-      </c>
-      <c r="C22" s="3" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A23" s="2">
+      <c r="B24" s="10">
+        <v>3</v>
+      </c>
+      <c r="C24" s="10"/>
+      <c r="D24" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="E24" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="F24" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="G24" s="3"/>
+      <c r="H24" s="4" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="2">
         <v>0</v>
       </c>
-      <c r="B23" s="10">
-        <v>2</v>
-      </c>
-      <c r="C23" s="3" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A24" s="2">
-        <v>3</v>
-      </c>
-      <c r="B24" s="10">
-        <v>2</v>
-      </c>
-      <c r="C24" s="3" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A25" s="2">
-        <v>3</v>
-      </c>
       <c r="B25" s="10">
-        <v>2</v>
-      </c>
-      <c r="C25" s="3" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.35">
+        <v>1</v>
+      </c>
+      <c r="C25" s="10"/>
+      <c r="D25" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="E25" s="3"/>
+      <c r="F25" s="3"/>
+      <c r="G25" s="3"/>
+      <c r="H25" s="4"/>
+    </row>
+    <row r="26" spans="1:8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A26" s="2">
         <v>0</v>
       </c>
       <c r="B26" s="10">
-        <v>5</v>
-      </c>
-      <c r="C26" s="3" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A27" s="2">
-        <v>6</v>
-      </c>
-      <c r="B27" s="10">
         <v>2</v>
       </c>
-      <c r="C27" s="3" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A28" s="2">
-        <v>5</v>
-      </c>
-      <c r="B28" s="10">
-        <v>4</v>
-      </c>
-      <c r="C28" s="3" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A29" s="2">
-        <v>0</v>
-      </c>
-      <c r="B29" s="10">
-        <v>10</v>
-      </c>
-      <c r="C29" s="3" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="B30" s="10">
-        <v>4</v>
-      </c>
-      <c r="C30" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="D30" s="3" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="B31" s="10">
-        <v>4</v>
-      </c>
-      <c r="C31" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="D31" s="3" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="B32" s="10">
-        <v>1</v>
-      </c>
-      <c r="C32" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="D32" s="3" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="33" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B33" s="10">
-        <v>1</v>
-      </c>
-      <c r="C33" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="D33" s="3" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="34" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B34" s="10">
-        <v>1</v>
-      </c>
-      <c r="C34" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="D34" s="3" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="35" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B35" s="10">
-        <v>6</v>
-      </c>
-      <c r="C35" s="3" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="36" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B36" s="10">
-        <v>6</v>
-      </c>
-      <c r="C36" s="3" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="37" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B37" s="10">
-        <v>3</v>
-      </c>
-      <c r="C37" s="3" t="s">
-        <v>59</v>
+      <c r="C26" s="10"/>
+      <c r="D26" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="E26" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="F26" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="G26" s="3"/>
+      <c r="H26" s="4" t="s">
+        <v>67</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="A1:G1"/>
+    <mergeCell ref="A1:H1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="360" verticalDpi="360" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{860B9AA3-CDFC-49E7-9F7D-763BB2D92E88}">
-  <dimension ref="A1:G6"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9F930C73-0F49-4C5B-BB1A-1B51D92EBAE9}">
+  <dimension ref="A1:H36"/>
   <sheetViews>
-    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F24" sqref="F24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="28.453125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="14.90625" style="2" customWidth="1"/>
-    <col min="2" max="2" width="14.90625" style="10" customWidth="1"/>
-    <col min="3" max="4" width="28.453125" style="3"/>
-    <col min="5" max="6" width="18.1796875" style="3" customWidth="1"/>
-    <col min="7" max="7" width="18.1796875" style="4" customWidth="1"/>
-    <col min="8" max="16384" width="28.453125" style="1"/>
+    <col min="1" max="3" width="11.21875" customWidth="1"/>
+    <col min="4" max="4" width="33.5546875" customWidth="1"/>
+    <col min="5" max="5" width="15.44140625" customWidth="1"/>
+    <col min="6" max="6" width="32.88671875" customWidth="1"/>
+    <col min="7" max="7" width="12.21875" customWidth="1"/>
+    <col min="8" max="8" width="18.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="25.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="14" t="s">
-        <v>34</v>
-      </c>
-      <c r="B1" s="14"/>
-      <c r="C1" s="14"/>
-      <c r="D1" s="14"/>
-      <c r="E1" s="14"/>
-      <c r="F1" s="14"/>
-      <c r="G1" s="15"/>
-    </row>
-    <row r="2" spans="1:7" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:8" ht="21.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="16" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" s="16"/>
+      <c r="C1" s="16"/>
+      <c r="D1" s="16"/>
+      <c r="E1" s="16"/>
+      <c r="F1" s="16"/>
+      <c r="G1" s="16"/>
+      <c r="H1" s="17"/>
+    </row>
+    <row r="2" spans="1:8" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="B2" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="C2" s="18" t="s">
+        <v>120</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="E2" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="F2" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="G2" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="H2" s="9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="15" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="12">
+        <v>1</v>
+      </c>
+      <c r="B3" s="10">
+        <v>3</v>
+      </c>
+      <c r="C3" s="10">
+        <v>1</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="E3" s="3"/>
+      <c r="F3" s="3"/>
+      <c r="G3" s="3"/>
+      <c r="H3" s="4"/>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A4" s="2">
+        <v>1</v>
+      </c>
+      <c r="B4" s="10">
+        <v>8</v>
+      </c>
+      <c r="C4" s="10">
+        <v>1</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="E4" s="3"/>
+      <c r="F4" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="G4" s="3"/>
+      <c r="H4" s="4" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A5" s="2">
+        <v>1</v>
+      </c>
+      <c r="B5" s="10">
+        <v>2</v>
+      </c>
+      <c r="C5" s="10">
+        <v>1</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="E5" s="3"/>
+      <c r="F5" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="G5" s="3"/>
+      <c r="H5" s="4" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A6" s="2">
+        <v>0</v>
+      </c>
+      <c r="B6" s="10">
+        <v>10</v>
+      </c>
+      <c r="C6" s="10"/>
+      <c r="D6" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="G6" s="3"/>
+      <c r="H6" s="4" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A7" s="2">
+        <v>0</v>
+      </c>
+      <c r="B7" s="10">
+        <v>5</v>
+      </c>
+      <c r="C7" s="10"/>
+      <c r="D7" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="F7" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="G7" s="3"/>
+      <c r="H7" s="4" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A8" s="2">
+        <v>0</v>
+      </c>
+      <c r="B8" s="10">
+        <v>2</v>
+      </c>
+      <c r="C8" s="10"/>
+      <c r="D8" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="F8" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="G8" s="3"/>
+      <c r="H8" s="4" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A9" s="2">
+        <v>1</v>
+      </c>
+      <c r="B9" s="10">
+        <v>8</v>
+      </c>
+      <c r="C9" s="10">
+        <v>1</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="E9" s="3"/>
+      <c r="F9" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="G9" s="3"/>
+      <c r="H9" s="4" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A10" s="2">
         <v>14</v>
       </c>
-      <c r="B2" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="C2" s="5" t="s">
+      <c r="B10" s="10">
+        <v>6</v>
+      </c>
+      <c r="C10" s="10"/>
+      <c r="D10" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="F10" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="G10" s="3"/>
+      <c r="H10" s="4" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A11" s="2">
         <v>0</v>
       </c>
-      <c r="D2" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="E2" s="7" t="s">
+      <c r="B11" s="10">
+        <v>1</v>
+      </c>
+      <c r="C11" s="10"/>
+      <c r="D11" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="E11" s="3"/>
+      <c r="F11" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="G11" s="3"/>
+      <c r="H11" s="4"/>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A12" s="2">
+        <v>7</v>
+      </c>
+      <c r="B12" s="10">
+        <v>3</v>
+      </c>
+      <c r="C12" s="10"/>
+      <c r="D12" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="E12" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="F12" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="G12" s="3"/>
+      <c r="H12" s="4" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A13" s="2">
+        <v>7</v>
+      </c>
+      <c r="B13" s="10">
         <v>2</v>
       </c>
-      <c r="F2" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="G2" s="9" t="s">
+      <c r="C13" s="10"/>
+      <c r="D13" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="E13" s="3"/>
+      <c r="F13" s="3"/>
+      <c r="G13" s="3"/>
+      <c r="H13" s="4" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A14" s="2">
+        <v>2</v>
+      </c>
+      <c r="B14" s="10">
+        <v>8</v>
+      </c>
+      <c r="C14" s="10"/>
+      <c r="D14" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="F14" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="G14" s="3"/>
+      <c r="H14" s="4" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A15" s="2"/>
+      <c r="B15" s="10">
+        <v>4</v>
+      </c>
+      <c r="C15" s="10"/>
+      <c r="D15" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="E15" s="3"/>
+      <c r="F15" s="3"/>
+      <c r="G15" s="3"/>
+      <c r="H15" s="4"/>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A16" s="2"/>
+      <c r="B16" s="10">
         <v>10</v>
       </c>
-    </row>
-    <row r="3" spans="1:7" ht="15" thickTop="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="12">
+      <c r="C16" s="10"/>
+      <c r="D16" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="E16" s="3"/>
+      <c r="F16" s="3"/>
+      <c r="G16" s="3"/>
+      <c r="H16" s="4"/>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A17" s="2">
+        <v>4</v>
+      </c>
+      <c r="B17" s="10">
+        <v>6</v>
+      </c>
+      <c r="C17" s="10"/>
+      <c r="D17" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="E17" s="3"/>
+      <c r="F17" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="G17" s="3"/>
+      <c r="H17" s="4" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A18" s="2">
+        <v>6</v>
+      </c>
+      <c r="B18" s="10">
+        <v>14</v>
+      </c>
+      <c r="C18" s="10"/>
+      <c r="D18" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="E18" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="F18" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="G18" s="3"/>
+      <c r="H18" s="4" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A19" s="2">
+        <v>8</v>
+      </c>
+      <c r="B19" s="10">
         <v>2</v>
       </c>
-      <c r="C3" s="3" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A4" s="2">
+      <c r="C19" s="10"/>
+      <c r="D19" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="E19" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="F19" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="G19" s="3"/>
+      <c r="H19" s="4" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A20" s="2">
+        <v>4</v>
+      </c>
+      <c r="B20" s="10">
+        <v>6</v>
+      </c>
+      <c r="C20" s="10"/>
+      <c r="D20" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="E20" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="F20" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="G20" s="3"/>
+      <c r="H20" s="4" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A21" s="2">
+        <v>11</v>
+      </c>
+      <c r="B21" s="10">
+        <v>9</v>
+      </c>
+      <c r="C21" s="10"/>
+      <c r="D21" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="E21" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="F21" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="G21" s="3"/>
+      <c r="H21" s="4" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A22" s="2">
+        <v>0</v>
+      </c>
+      <c r="B22" s="10">
+        <v>10</v>
+      </c>
+      <c r="C22" s="10"/>
+      <c r="D22" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="E22" s="3"/>
+      <c r="F22" s="3"/>
+      <c r="G22" s="3"/>
+      <c r="H22" s="4"/>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A23" s="2">
+        <v>1</v>
+      </c>
+      <c r="B23" s="10">
         <v>2</v>
       </c>
-      <c r="C4" s="3" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A5" s="2">
+      <c r="C23" s="10">
+        <v>1</v>
+      </c>
+      <c r="D23" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="E23" s="3"/>
+      <c r="F23" s="3"/>
+      <c r="G23" s="3"/>
+      <c r="H23" s="4"/>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A24" s="2">
         <v>2</v>
       </c>
-      <c r="C5" s="3" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="B6" s="10">
-        <v>30</v>
-      </c>
-      <c r="C6" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="D6" s="3" t="s">
-        <v>39</v>
-      </c>
+      <c r="B24" s="10">
+        <v>2</v>
+      </c>
+      <c r="C24" s="10"/>
+      <c r="D24" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="E24" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="F24" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="G24" s="3"/>
+      <c r="H24" s="4"/>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A25" s="2"/>
+      <c r="B25" s="10"/>
+      <c r="C25" s="10"/>
+      <c r="D25" s="3"/>
+      <c r="E25" s="3"/>
+      <c r="F25" s="3"/>
+      <c r="G25" s="3"/>
+      <c r="H25" s="4"/>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A26" s="2"/>
+      <c r="B26" s="10"/>
+      <c r="C26" s="10"/>
+      <c r="D26" s="3"/>
+      <c r="E26" s="3"/>
+      <c r="F26" s="3"/>
+      <c r="G26" s="3"/>
+      <c r="H26" s="4"/>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A27" s="2"/>
+      <c r="B27" s="10"/>
+      <c r="C27" s="10"/>
+      <c r="D27" s="3"/>
+      <c r="E27" s="3"/>
+      <c r="F27" s="3"/>
+      <c r="G27" s="3"/>
+      <c r="H27" s="4"/>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A28" s="2"/>
+      <c r="B28" s="10"/>
+      <c r="C28" s="10"/>
+      <c r="D28" s="3"/>
+      <c r="E28" s="3"/>
+      <c r="F28" s="3"/>
+      <c r="G28" s="3"/>
+      <c r="H28" s="4"/>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A29" s="2"/>
+      <c r="B29" s="10"/>
+      <c r="C29" s="10"/>
+      <c r="D29" s="3"/>
+      <c r="E29" s="3"/>
+      <c r="F29" s="3"/>
+      <c r="G29" s="3"/>
+      <c r="H29" s="4"/>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A30" s="2"/>
+      <c r="B30" s="10"/>
+      <c r="C30" s="10"/>
+      <c r="D30" s="3"/>
+      <c r="E30" s="3"/>
+      <c r="F30" s="3"/>
+      <c r="G30" s="3"/>
+      <c r="H30" s="4"/>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A31" s="2"/>
+      <c r="B31" s="10"/>
+      <c r="C31" s="10"/>
+      <c r="D31" s="3"/>
+      <c r="E31" s="3"/>
+      <c r="F31" s="3"/>
+      <c r="G31" s="3"/>
+      <c r="H31" s="4"/>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A32" s="2"/>
+      <c r="B32" s="10"/>
+      <c r="C32" s="10"/>
+      <c r="D32" s="3"/>
+      <c r="E32" s="3"/>
+      <c r="F32" s="3"/>
+      <c r="G32" s="3"/>
+      <c r="H32" s="4"/>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A33" s="2"/>
+      <c r="B33" s="10"/>
+      <c r="C33" s="10"/>
+      <c r="D33" s="3"/>
+      <c r="E33" s="3"/>
+      <c r="F33" s="3"/>
+      <c r="G33" s="3"/>
+      <c r="H33" s="4"/>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A34" s="2"/>
+      <c r="B34" s="10"/>
+      <c r="C34" s="10"/>
+      <c r="D34" s="3"/>
+      <c r="E34" s="3"/>
+      <c r="F34" s="3"/>
+      <c r="G34" s="3"/>
+      <c r="H34" s="4"/>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A35" s="2"/>
+      <c r="B35" s="10"/>
+      <c r="C35" s="10"/>
+      <c r="D35" s="3"/>
+      <c r="E35" s="3"/>
+      <c r="F35" s="3"/>
+      <c r="G35" s="3"/>
+      <c r="H35" s="4"/>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A36" s="2"/>
+      <c r="B36" s="10"/>
+      <c r="C36" s="10"/>
+      <c r="D36" s="3"/>
+      <c r="E36" s="3"/>
+      <c r="F36" s="3"/>
+      <c r="G36" s="3"/>
+      <c r="H36" s="4"/>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="A1:G1"/>
+    <mergeCell ref="A1:H1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3DA3E15C-65BC-4D42-925F-A13A859A585F}">
-  <dimension ref="A1:G4"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C3644371-F4B4-47C9-A2E0-05B12AC541FA}">
+  <dimension ref="A1:H21"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D21" sqref="D21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="28.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="14.88671875" style="2" customWidth="1"/>
+    <col min="2" max="3" width="14.88671875" style="10" customWidth="1"/>
+    <col min="4" max="5" width="28.44140625" style="3"/>
+    <col min="6" max="7" width="18.21875" style="3" customWidth="1"/>
+    <col min="8" max="8" width="18.21875" style="4" customWidth="1"/>
+    <col min="9" max="16384" width="28.44140625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" ht="25.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="16" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" s="16"/>
+      <c r="C1" s="16"/>
+      <c r="D1" s="16"/>
+      <c r="E1" s="16"/>
+      <c r="F1" s="16"/>
+      <c r="G1" s="16"/>
+      <c r="H1" s="17"/>
+    </row>
+    <row r="2" spans="1:8" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="B2" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="C2" s="18" t="s">
+        <v>120</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="E2" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="F2" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="G2" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="H2" s="9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="15" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="12">
+        <v>0</v>
+      </c>
+      <c r="B3" s="10">
+        <v>1</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A4" s="15">
+        <v>0</v>
+      </c>
+      <c r="B4" s="10">
+        <v>4</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A5" s="2">
+        <v>1</v>
+      </c>
+      <c r="B5" s="10">
+        <v>1</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A6" s="2">
+        <v>0</v>
+      </c>
+      <c r="B6" s="10">
+        <v>1</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A7" s="2">
+        <v>0</v>
+      </c>
+      <c r="B7" s="10">
+        <v>1</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A8" s="2">
+        <v>1</v>
+      </c>
+      <c r="B8" s="10">
+        <v>2</v>
+      </c>
+      <c r="C8" s="10">
+        <v>2</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A9" s="2">
+        <v>3</v>
+      </c>
+      <c r="B9" s="10">
+        <v>2</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A10" s="2">
+        <v>4</v>
+      </c>
+      <c r="B10" s="10">
+        <v>6</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A11" s="2">
+        <v>0</v>
+      </c>
+      <c r="B11" s="10">
+        <v>1</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A12" s="2">
+        <v>0</v>
+      </c>
+      <c r="B12" s="10">
+        <v>2</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A13" s="2">
+        <v>2</v>
+      </c>
+      <c r="B13" s="10">
+        <v>1</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="E13" s="3" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A14" s="2">
+        <v>3</v>
+      </c>
+      <c r="B14" s="10">
+        <v>2</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="E14" s="1"/>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B15" s="10">
+        <v>4</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="E15" s="3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B16" s="10">
+        <v>4</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="E16" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="17" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B17" s="10">
+        <v>0</v>
+      </c>
+      <c r="D17" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="E17" s="3" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="18" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B18" s="10">
+        <v>1</v>
+      </c>
+      <c r="D18" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="E18" s="3" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="19" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B19" s="10">
+        <v>1</v>
+      </c>
+      <c r="D19" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="E19" s="3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="20" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B20" s="10">
+        <v>3</v>
+      </c>
+      <c r="D20" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="E20" s="3" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="21" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="D21" s="3">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:H1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{860B9AA3-CDFC-49E7-9F7D-763BB2D92E88}">
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="28.453125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="28.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="14.90625" style="2" customWidth="1"/>
-    <col min="2" max="2" width="14.90625" style="10" customWidth="1"/>
-    <col min="3" max="4" width="28.453125" style="3"/>
-    <col min="5" max="6" width="18.1796875" style="3" customWidth="1"/>
-    <col min="7" max="7" width="18.1796875" style="4" customWidth="1"/>
-    <col min="8" max="16384" width="28.453125" style="1"/>
+    <col min="1" max="1" width="14.88671875" style="2" customWidth="1"/>
+    <col min="2" max="3" width="14.88671875" style="10" customWidth="1"/>
+    <col min="4" max="5" width="28.44140625" style="3"/>
+    <col min="6" max="7" width="18.21875" style="3" customWidth="1"/>
+    <col min="8" max="8" width="18.21875" style="4" customWidth="1"/>
+    <col min="9" max="16384" width="28.44140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="25.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="14" t="s">
+    <row r="1" spans="1:8" ht="25.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="16" t="s">
+        <v>29</v>
+      </c>
+      <c r="B1" s="16"/>
+      <c r="C1" s="16"/>
+      <c r="D1" s="16"/>
+      <c r="E1" s="16"/>
+      <c r="F1" s="16"/>
+      <c r="G1" s="16"/>
+      <c r="H1" s="17"/>
+    </row>
+    <row r="2" spans="1:8" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="B2" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="C2" s="18" t="s">
+        <v>120</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="E2" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="F2" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="G2" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="H2" s="9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="15" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="12">
+        <v>2</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A4" s="2">
+        <v>2</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A5" s="2">
+        <v>2</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B6" s="10">
+        <v>30</v>
+      </c>
+      <c r="D6" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="B1" s="14"/>
-      <c r="C1" s="14"/>
-      <c r="D1" s="14"/>
-      <c r="E1" s="14"/>
-      <c r="F1" s="14"/>
-      <c r="G1" s="15"/>
-    </row>
-    <row r="2" spans="1:7" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A2" s="13" t="s">
-        <v>14</v>
-      </c>
-      <c r="B2" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="C2" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="D2" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="E2" s="7" t="s">
+      <c r="E6" s="3" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B7" s="10">
         <v>2</v>
       </c>
-      <c r="F2" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="G2" s="9" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" ht="15" thickTop="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="12">
-        <v>1</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A4" s="2">
-        <v>1</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>44</v>
+      <c r="D7" s="3" t="s">
+        <v>108</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="A1:G1"/>
+    <mergeCell ref="A1:H1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3DA3E15C-65BC-4D42-925F-A13A859A585F}">
+  <dimension ref="A1:H10"/>
+  <sheetViews>
+    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="D7" sqref="D7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="28.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="14.88671875" style="2" customWidth="1"/>
+    <col min="2" max="3" width="14.88671875" style="10" customWidth="1"/>
+    <col min="4" max="5" width="28.44140625" style="3"/>
+    <col min="6" max="7" width="18.21875" style="3" customWidth="1"/>
+    <col min="8" max="8" width="18.21875" style="4" customWidth="1"/>
+    <col min="9" max="16384" width="28.44140625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" ht="25.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="16" t="s">
+        <v>28</v>
+      </c>
+      <c r="B1" s="16"/>
+      <c r="C1" s="16"/>
+      <c r="D1" s="16"/>
+      <c r="E1" s="16"/>
+      <c r="F1" s="16"/>
+      <c r="G1" s="16"/>
+      <c r="H1" s="17"/>
+    </row>
+    <row r="2" spans="1:8" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="B2" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="C2" s="18" t="s">
+        <v>120</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="E2" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="F2" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="G2" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="H2" s="9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="15" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="12">
+        <v>1</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A4" s="2">
+        <v>1</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B5" s="10">
+        <v>1</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B6" s="10">
+        <v>1</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="D7" s="3" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="D8" s="3" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B9" s="10">
+        <v>1</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B10" s="10">
+        <v>3</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>62</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:H1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
 </worksheet>
